--- a/muna database format.xlsx
+++ b/muna database format.xlsx
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -882,6 +882,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -889,12 +895,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,8 +1259,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5">
@@ -1287,7 +1287,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -1311,8 +1311,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -1332,8 +1332,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -1360,7 +1360,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -1383,7 +1383,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -1406,7 +1406,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="5">
         <v>7</v>
       </c>
@@ -1431,7 +1431,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="5">
         <v>8</v>
       </c>
@@ -1454,7 +1454,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="5">
         <v>9</v>
       </c>
@@ -1477,7 +1477,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="5">
         <v>10</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="5">
         <v>11</v>
       </c>
@@ -1518,8 +1518,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
       <c r="B14" s="5">
         <v>12</v>
       </c>
@@ -1544,7 +1544,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="5">
         <v>13</v>
       </c>
@@ -1565,7 +1565,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="5">
         <v>14</v>
       </c>
@@ -1590,7 +1590,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="5">
         <v>15</v>
       </c>
@@ -1610,8 +1610,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
       <c r="B18" s="5">
         <v>16</v>
       </c>
@@ -1631,8 +1631,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
       <c r="B19" s="5">
         <v>17</v>
       </c>
@@ -1653,7 +1653,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="5">
         <v>18</v>
       </c>
@@ -1673,8 +1673,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
       <c r="B21" s="5">
         <v>19</v>
       </c>
@@ -1695,7 +1695,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="5">
         <v>20</v>
       </c>
@@ -1721,8 +1721,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
       <c r="B23" s="5">
         <v>21</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="5">
         <v>22</v>
       </c>
@@ -1770,7 +1770,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="5">
         <v>23</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="5">
         <v>24</v>
       </c>
@@ -1819,8 +1819,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B27" s="5">
@@ -1842,8 +1842,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
       <c r="B28" s="5">
         <v>27</v>
       </c>
@@ -1863,8 +1863,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
       <c r="B29" s="5">
         <v>28</v>
       </c>
@@ -1886,8 +1886,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
       <c r="B30" s="5">
         <v>29</v>
       </c>
@@ -1909,8 +1909,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
       <c r="B31" s="5">
         <v>30</v>
       </c>
@@ -1932,8 +1932,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
       <c r="B32" s="5">
         <v>31</v>
       </c>
@@ -1955,8 +1955,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
       <c r="B33" s="5">
         <v>32</v>
       </c>
@@ -1978,8 +1978,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
       <c r="B34" s="5">
         <v>33</v>
       </c>
@@ -2001,8 +2001,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
       <c r="B35" s="5">
         <v>34</v>
       </c>
@@ -2024,8 +2024,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
       <c r="B36" s="5">
         <v>35</v>
       </c>
@@ -2047,8 +2047,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
+    <row r="37" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
       <c r="B37" s="5">
         <v>36</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="5">
         <v>37</v>
       </c>
@@ -2102,7 +2102,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="5">
         <v>38</v>
       </c>
@@ -2126,8 +2126,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B40" s="5">
@@ -2155,8 +2155,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+    <row r="41" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
       <c r="B41" s="5">
         <v>41</v>
       </c>
@@ -2178,8 +2178,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
+    <row r="42" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
       <c r="B42" s="5">
         <v>42</v>
       </c>
@@ -2199,8 +2199,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
       <c r="B43" s="5">
         <v>43</v>
       </c>
@@ -2226,8 +2226,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
       <c r="B44" s="5">
         <v>45</v>
       </c>
@@ -2253,8 +2253,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B45" s="5">
@@ -2280,8 +2280,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
+    <row r="46" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
       <c r="B46" s="5">
         <v>47</v>
       </c>
@@ -2301,8 +2301,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
+    <row r="47" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11"/>
       <c r="B47" s="5">
         <v>48</v>
       </c>
@@ -2326,8 +2326,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
+    <row r="48" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11"/>
       <c r="B48" s="5">
         <v>50</v>
       </c>
@@ -2351,8 +2351,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="405.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
+    <row r="49" spans="1:9" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11"/>
       <c r="B49" s="5">
         <v>51</v>
       </c>
@@ -2376,8 +2376,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
+    <row r="50" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11"/>
       <c r="B50" s="5">
         <v>52</v>
       </c>
@@ -2397,8 +2397,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
+    <row r="51" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11"/>
       <c r="B51" s="5">
         <v>53</v>
       </c>
@@ -2422,8 +2422,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
+    <row r="52" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11"/>
       <c r="B52" s="5">
         <v>54</v>
       </c>
@@ -2447,8 +2447,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
+    <row r="53" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
       <c r="B53" s="5">
         <v>55</v>
       </c>
@@ -2470,8 +2470,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
+    <row r="54" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11"/>
       <c r="B54" s="5">
         <v>56</v>
       </c>
@@ -2495,8 +2495,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
+    <row r="55" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11"/>
       <c r="B55" s="5">
         <v>57</v>
       </c>
@@ -2520,8 +2520,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
+    <row r="56" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11"/>
       <c r="B56" s="5">
         <v>58</v>
       </c>
@@ -2545,8 +2545,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
+    <row r="57" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="12"/>
       <c r="B57" s="5">
         <v>59</v>
       </c>
@@ -2570,8 +2570,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
         <v>143</v>
       </c>
       <c r="B58" s="5">
@@ -2593,8 +2593,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
+    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11"/>
       <c r="B59" s="5">
         <v>61</v>
       </c>
@@ -2614,8 +2614,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11"/>
       <c r="B60" s="5">
         <v>62</v>
       </c>
@@ -2635,8 +2635,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11"/>
       <c r="B61" s="5">
         <v>63</v>
       </c>
@@ -2656,8 +2656,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
+    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11"/>
       <c r="B62" s="5">
         <v>64</v>
       </c>
@@ -2677,8 +2677,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11"/>
       <c r="B63" s="5">
         <v>65</v>
       </c>
@@ -2698,8 +2698,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11"/>
       <c r="B64" s="5">
         <v>66</v>
       </c>
@@ -2719,8 +2719,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
+    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="11"/>
       <c r="B65" s="5">
         <v>67</v>
       </c>
@@ -2740,8 +2740,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
+    <row r="66" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="12"/>
       <c r="B66" s="5">
         <v>68</v>
       </c>
@@ -2761,8 +2761,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
         <v>162</v>
       </c>
       <c r="B67" s="5">
@@ -2784,8 +2784,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
+    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11"/>
       <c r="B68" s="5">
         <v>71</v>
       </c>
@@ -2805,8 +2805,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
+    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="11"/>
       <c r="B69" s="5">
         <v>72</v>
       </c>
@@ -2826,8 +2826,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
+    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11"/>
       <c r="B70" s="5">
         <v>73</v>
       </c>
@@ -2847,8 +2847,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9"/>
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="11"/>
       <c r="B71" s="5">
         <v>74</v>
       </c>
@@ -2868,8 +2868,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9"/>
+    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="11"/>
       <c r="B72" s="5">
         <v>75</v>
       </c>
@@ -2889,8 +2889,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9"/>
+    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11"/>
       <c r="B73" s="5">
         <v>76</v>
       </c>
@@ -2910,8 +2910,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9"/>
+    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="11"/>
       <c r="B74" s="5">
         <v>77</v>
       </c>
@@ -2931,8 +2931,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="10"/>
+    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="12"/>
       <c r="B75" s="5">
         <v>78</v>
       </c>
@@ -2952,8 +2952,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
+    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
         <v>181</v>
       </c>
       <c r="B76" s="5">
@@ -2977,8 +2977,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9"/>
+    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="11"/>
       <c r="B77" s="5">
         <v>80</v>
       </c>
@@ -3002,8 +3002,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9"/>
+    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11"/>
       <c r="B78" s="5">
         <v>81</v>
       </c>
@@ -3023,8 +3023,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="10"/>
+    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="12"/>
       <c r="B79" s="5">
         <v>82</v>
       </c>
@@ -3046,8 +3046,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
+    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
         <v>189</v>
       </c>
       <c r="B80" s="5">
@@ -3069,8 +3069,8 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9"/>
+    <row r="81" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="11"/>
       <c r="B81" s="5">
         <v>84</v>
       </c>
@@ -3090,8 +3090,8 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9"/>
+    <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="11"/>
       <c r="B82" s="5">
         <v>85</v>
       </c>
@@ -3111,8 +3111,8 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9"/>
+    <row r="83" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11"/>
       <c r="B83" s="5">
         <v>86</v>
       </c>
@@ -3132,8 +3132,8 @@
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="9"/>
+    <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="11"/>
       <c r="B84" s="5">
         <v>87</v>
       </c>
@@ -3151,8 +3151,8 @@
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="9"/>
+    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11"/>
       <c r="B85" s="5">
         <v>88</v>
       </c>
@@ -3170,8 +3170,8 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="10"/>
+    <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="12"/>
       <c r="B86" s="5">
         <v>89</v>
       </c>
@@ -3189,8 +3189,8 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
+    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
         <v>208</v>
       </c>
       <c r="B87" s="5">
@@ -3213,7 +3213,7 @@
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="9"/>
+      <c r="A88" s="11"/>
       <c r="B88" s="5">
         <v>91</v>
       </c>
@@ -3233,8 +3233,8 @@
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="9"/>
+    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11"/>
       <c r="B89" s="5">
         <v>92</v>
       </c>
@@ -3254,8 +3254,8 @@
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="10"/>
+    <row r="90" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="12"/>
       <c r="B90" s="5">
         <v>93</v>
       </c>
@@ -3296,7 +3296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -3343,7 +3343,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5">
@@ -3370,7 +3370,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -3395,7 +3395,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -3416,7 +3416,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -3443,7 +3443,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -3466,7 +3466,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -3489,7 +3489,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="5">
         <v>7</v>
       </c>
@@ -3514,7 +3514,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="5">
         <v>8</v>
       </c>
@@ -3537,7 +3537,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="5">
         <v>9</v>
       </c>
@@ -3560,7 +3560,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="5">
         <v>10</v>
       </c>
@@ -3581,7 +3581,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="5">
         <v>11</v>
       </c>
@@ -3602,7 +3602,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="5">
         <v>12</v>
       </c>
@@ -3627,7 +3627,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="5">
         <v>13</v>
       </c>
@@ -3648,7 +3648,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="5">
         <v>14</v>
       </c>
@@ -3673,7 +3673,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="5">
         <v>15</v>
       </c>
@@ -3694,7 +3694,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="5">
         <v>16</v>
       </c>
@@ -3715,7 +3715,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="5">
         <v>17</v>
       </c>
@@ -3736,7 +3736,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="5">
         <v>18</v>
       </c>
@@ -3757,7 +3757,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="5">
         <v>19</v>
       </c>
@@ -3778,7 +3778,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="5">
         <v>20</v>
       </c>
@@ -3805,7 +3805,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="5">
         <v>21</v>
       </c>
@@ -3830,7 +3830,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="5">
         <v>22</v>
       </c>
@@ -3853,7 +3853,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="5">
         <v>23</v>
       </c>
@@ -3876,7 +3876,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="5">
         <v>24</v>
       </c>
@@ -3903,7 +3903,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B27" s="5">
@@ -3926,7 +3926,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="5">
         <v>27</v>
       </c>
@@ -3947,7 +3947,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="5">
         <v>28</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="5">
         <v>29</v>
       </c>
@@ -3993,7 +3993,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="5">
         <v>30</v>
       </c>
@@ -4016,7 +4016,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="5">
         <v>31</v>
       </c>
@@ -4039,7 +4039,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="5">
         <v>32</v>
       </c>
@@ -4062,7 +4062,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="5">
         <v>33</v>
       </c>
@@ -4085,7 +4085,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="5">
         <v>34</v>
       </c>
@@ -4108,7 +4108,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="5">
         <v>35</v>
       </c>
@@ -4131,7 +4131,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="5">
         <v>36</v>
       </c>
@@ -4158,7 +4158,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="5">
         <v>37</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="5">
         <v>38</v>
       </c>
@@ -4210,7 +4210,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B40" s="5">
@@ -4239,7 +4239,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="5">
         <v>41</v>
       </c>
@@ -4262,7 +4262,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="5">
         <v>42</v>
       </c>
@@ -4283,34 +4283,34 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="5">
         <v>44</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="11" t="s">
+      <c r="E43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H43" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="12" t="s">
+      <c r="H43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="5">
         <v>45</v>
       </c>
@@ -4337,7 +4337,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B45" s="5">
@@ -4364,7 +4364,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="5">
         <v>47</v>
       </c>
@@ -4385,7 +4385,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="5">
         <v>49</v>
       </c>
@@ -4410,7 +4410,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="5">
         <v>50</v>
       </c>
@@ -4435,7 +4435,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="405.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="5">
         <v>51</v>
       </c>
@@ -4460,7 +4460,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="5">
         <v>52</v>
       </c>
@@ -4481,7 +4481,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="5">
         <v>53</v>
       </c>
@@ -4506,7 +4506,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="5">
         <v>54</v>
       </c>
@@ -4531,7 +4531,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="5">
         <v>55</v>
       </c>
@@ -4554,7 +4554,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="5">
         <v>56</v>
       </c>
@@ -4579,7 +4579,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="5">
         <v>57</v>
       </c>
@@ -4604,7 +4604,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="5">
         <v>58</v>
       </c>
@@ -4629,7 +4629,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="5">
         <v>59</v>
       </c>
@@ -4654,7 +4654,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="10" t="s">
         <v>143</v>
       </c>
       <c r="B58" s="5">
@@ -4677,7 +4677,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="5">
         <v>61</v>
       </c>
@@ -4698,7 +4698,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="5">
         <v>62</v>
       </c>
@@ -4719,7 +4719,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="5">
         <v>63</v>
       </c>
@@ -4740,7 +4740,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="5">
         <v>64</v>
       </c>
@@ -4761,7 +4761,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="5">
         <v>65</v>
       </c>
@@ -4782,7 +4782,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="5">
         <v>66</v>
       </c>
@@ -4803,7 +4803,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="5">
         <v>67</v>
       </c>
@@ -4824,7 +4824,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="5">
         <v>68</v>
       </c>
@@ -4845,7 +4845,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="10" t="s">
         <v>162</v>
       </c>
       <c r="B67" s="5">
@@ -4868,7 +4868,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
+      <c r="A68" s="11"/>
       <c r="B68" s="5">
         <v>71</v>
       </c>
@@ -4889,7 +4889,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="5">
         <v>72</v>
       </c>
@@ -4910,7 +4910,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="5">
         <v>73</v>
       </c>
@@ -4931,7 +4931,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="5">
         <v>74</v>
       </c>
@@ -4952,7 +4952,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="5">
         <v>75</v>
       </c>
@@ -4973,7 +4973,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9"/>
+      <c r="A73" s="11"/>
       <c r="B73" s="5">
         <v>76</v>
       </c>
@@ -4994,7 +4994,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9"/>
+      <c r="A74" s="11"/>
       <c r="B74" s="5">
         <v>77</v>
       </c>
@@ -5015,7 +5015,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="10"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="5">
         <v>78</v>
       </c>
@@ -5036,7 +5036,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="10" t="s">
         <v>181</v>
       </c>
       <c r="B76" s="5">
@@ -5061,7 +5061,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9"/>
+      <c r="A77" s="11"/>
       <c r="B77" s="5">
         <v>80</v>
       </c>
@@ -5086,7 +5086,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9"/>
+      <c r="A78" s="11"/>
       <c r="B78" s="5">
         <v>81</v>
       </c>
@@ -5107,7 +5107,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="10"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="5">
         <v>82</v>
       </c>
@@ -5130,7 +5130,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="10" t="s">
         <v>189</v>
       </c>
       <c r="B80" s="5">
@@ -5153,7 +5153,7 @@
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9"/>
+      <c r="A81" s="11"/>
       <c r="B81" s="5">
         <v>84</v>
       </c>
@@ -5174,7 +5174,7 @@
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9"/>
+      <c r="A82" s="11"/>
       <c r="B82" s="5">
         <v>85</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9"/>
+      <c r="A83" s="11"/>
       <c r="B83" s="5">
         <v>86</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="9"/>
+      <c r="A84" s="11"/>
       <c r="B84" s="5">
         <v>87</v>
       </c>
@@ -5235,7 +5235,7 @@
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="9"/>
+      <c r="A85" s="11"/>
       <c r="B85" s="5">
         <v>88</v>
       </c>
@@ -5254,7 +5254,7 @@
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="10"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="5">
         <v>89</v>
       </c>
@@ -5273,7 +5273,7 @@
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="10" t="s">
         <v>208</v>
       </c>
       <c r="B87" s="5">
@@ -5296,7 +5296,7 @@
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="9"/>
+      <c r="A88" s="11"/>
       <c r="B88" s="5">
         <v>91</v>
       </c>
@@ -5317,7 +5317,7 @@
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="9"/>
+      <c r="A89" s="11"/>
       <c r="B89" s="5">
         <v>92</v>
       </c>
@@ -5338,7 +5338,7 @@
       <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="10"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="5">
         <v>93</v>
       </c>
